--- a/CreateDocxFiles.xlsx
+++ b/CreateDocxFiles.xlsx
@@ -33,92 +33,86 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
-    <t>SUPPORT PLATE</t>
-  </si>
-  <si>
-    <t>P.T. MTG. ANGLE</t>
-  </si>
-  <si>
-    <t>VERTICAL RIB</t>
-  </si>
-  <si>
-    <t>BRIGHT FLAT</t>
-  </si>
-  <si>
-    <t>RIB - 1</t>
-  </si>
-  <si>
-    <t>RIB - 2</t>
-  </si>
-  <si>
-    <t>SLIDE MTG. PLATE</t>
-  </si>
-  <si>
-    <t>FRONT BAKELITE-TOP</t>
-  </si>
-  <si>
-    <t>FRONT BAKELITE-BOTTOM</t>
-  </si>
-  <si>
-    <t>BOTTOM BACKLITE 140 MM ANVIL</t>
-  </si>
-  <si>
-    <t>BASE PLATE</t>
-  </si>
-  <si>
-    <t>FRONT PLATE</t>
-  </si>
-  <si>
-    <t>ANVIL 140 MM</t>
-  </si>
-  <si>
-    <t>P.T. PLATE MTG. ANGLE</t>
-  </si>
-  <si>
-    <t>SPACER BAKELITE</t>
-  </si>
-  <si>
-    <t>P.T. MTG. PLATE</t>
-  </si>
-  <si>
-    <t>PROFILE PLATE - RHS</t>
-  </si>
-  <si>
-    <t>MS ANGLE</t>
-  </si>
-  <si>
-    <t>PROFILE PLATE - LHS</t>
-  </si>
-  <si>
-    <t>CYL. MTG. PLATE</t>
-  </si>
-  <si>
-    <t>20-30 KVA 300-350 C FRAME HAWKINS</t>
-  </si>
-  <si>
     <t>.docx</t>
   </si>
   <si>
-    <t>Sudarshan</t>
+    <t>00 S 00 0000 C 800 015.00 NAME PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 016.00 SUPPORT PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 007.00 P.T. MTG. ANGLE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 015.00 VERTICAL RIB</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 010.00 BRIGHT FLAT</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 012.00 RIB - 1</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 011.00 RIB - 2</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 005.00 SLIDE MTG. PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 020.00 FRONT BAKELITE-TOP</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 019.00 FRONT BAKELITE-BOTTOM</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 017.00 BOTTOM BACKLITE 140 MM ANVIL</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 013.00 BASE PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 004.00 FRONT PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 014.00 ANVIL 140 MM</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 008.00 P.T. PLATE MTG. ANGLE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 018.00 SPACER BAKELITE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 009.00 P.T. MTG. PLATE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 002.00 PROFILE PLATE - RHS</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 006.00 MS ANGLE</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 003.00 PROFILE PLATE - LHS</t>
+  </si>
+  <si>
+    <t>00 S 00 0000 C 870 001.00 CYL. MTG. PLATE</t>
+  </si>
+  <si>
+    <t>dcproxy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,31 +138,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,84 +434,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="str">
         <f>CONCATENATE(A1,B1)</f>
-        <v>20-30 KVA 300-350 C FRAME HAWKINS.docx</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>00 S 00 0000 C 800 015.00 NAME PLATE.docx</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C21" si="0">CONCATENATE(A2,B2)</f>
-        <v>CYL. MTG. PLATE.docx</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>00 S 00 0000 C 870 016.00 SUPPORT PLATE.docx</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PROFILE PLATE - RHS.docx</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 007.00 P.T. MTG. ANGLE.docx</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PROFILE PLATE - LHS.docx</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 015.00 VERTICAL RIB.docx</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FRONT PLATE.docx</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 010.00 BRIGHT FLAT.docx</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -543,239 +519,239 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SLIDE MTG. PLATE.docx</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 012.00 RIB - 1.docx</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MS ANGLE.docx</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 011.00 RIB - 2.docx</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>P.T. MTG. ANGLE.docx</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 005.00 SLIDE MTG. PLATE.docx</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>P.T. PLATE MTG. ANGLE.docx</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 020.00 FRONT BAKELITE-TOP.docx</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>P.T. MTG. PLATE.docx</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 019.00 FRONT BAKELITE-BOTTOM.docx</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BRIGHT FLAT.docx</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 017.00 BOTTOM BACKLITE 140 MM ANVIL.docx</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RIB - 2.docx</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 013.00 BASE PLATE.docx</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RIB - 1.docx</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 004.00 FRONT PLATE.docx</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BASE PLATE.docx</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 014.00 ANVIL 140 MM.docx</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ANVIL 140 MM.docx</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 008.00 P.T. PLATE MTG. ANGLE.docx</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>VERTICAL RIB.docx</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 018.00 SPACER BAKELITE.docx</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SUPPORT PLATE.docx</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 009.00 P.T. MTG. PLATE.docx</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BOTTOM BACKLITE 140 MM ANVIL.docx</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 002.00 PROFILE PLATE - RHS.docx</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SPACER BAKELITE.docx</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 006.00 MS ANGLE.docx</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FRONT BAKELITE-BOTTOM.docx</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 003.00 PROFILE PLATE - LHS.docx</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FRONT BAKELITE-TOP.docx</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>00 S 00 0000 C 870 001.00 CYL. MTG. PLATE.docx</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
